--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H2">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.48008305953644</v>
+        <v>17.00372766666667</v>
       </c>
       <c r="N2">
-        <v>5.48008305953644</v>
+        <v>51.011183</v>
       </c>
       <c r="O2">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567142</v>
       </c>
       <c r="P2">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567141</v>
       </c>
       <c r="Q2">
-        <v>65.19039119571313</v>
+        <v>356.1315361151569</v>
       </c>
       <c r="R2">
-        <v>65.19039119571313</v>
+        <v>3205.183825036412</v>
       </c>
       <c r="S2">
-        <v>0.2416746465939487</v>
+        <v>0.4896682145803451</v>
       </c>
       <c r="T2">
-        <v>0.2416746465939487</v>
+        <v>0.4896682145803449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H3">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.32631764293685</v>
+        <v>5.393811333333333</v>
       </c>
       <c r="N3">
-        <v>5.32631764293685</v>
+        <v>16.181434</v>
       </c>
       <c r="O3">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="P3">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="Q3">
-        <v>63.36121679240637</v>
+        <v>112.9697177767084</v>
       </c>
       <c r="R3">
-        <v>63.36121679240637</v>
+        <v>1016.727459990376</v>
       </c>
       <c r="S3">
-        <v>0.2348935080032828</v>
+        <v>0.1553293499609623</v>
       </c>
       <c r="T3">
-        <v>0.2348935080032828</v>
+        <v>0.1553293499609623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H4">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I4">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J4">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.24378139788671</v>
+        <v>3.287074</v>
       </c>
       <c r="N4">
-        <v>3.24378139788671</v>
+        <v>9.861222</v>
       </c>
       <c r="O4">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329392</v>
       </c>
       <c r="P4">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329391</v>
       </c>
       <c r="Q4">
-        <v>38.58762284882221</v>
+        <v>68.84553410244534</v>
       </c>
       <c r="R4">
-        <v>38.58762284882221</v>
+        <v>619.609806922008</v>
       </c>
       <c r="S4">
-        <v>0.1430525257455877</v>
+        <v>0.09466016442552254</v>
       </c>
       <c r="T4">
-        <v>0.1430525257455877</v>
+        <v>0.09466016442552251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H5">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.48008305953644</v>
+        <v>17.00372766666667</v>
       </c>
       <c r="N5">
-        <v>5.48008305953644</v>
+        <v>51.011183</v>
       </c>
       <c r="O5">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567142</v>
       </c>
       <c r="P5">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567141</v>
       </c>
       <c r="Q5">
-        <v>12.67656468736833</v>
+        <v>39.56928396655245</v>
       </c>
       <c r="R5">
-        <v>12.67656468736833</v>
+        <v>356.123555698972</v>
       </c>
       <c r="S5">
-        <v>0.04699472168601639</v>
+        <v>0.05440636019905618</v>
       </c>
       <c r="T5">
-        <v>0.04699472168601639</v>
+        <v>0.05440636019905617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H6">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J6">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.32631764293685</v>
+        <v>5.393811333333333</v>
       </c>
       <c r="N6">
-        <v>5.32631764293685</v>
+        <v>16.181434</v>
       </c>
       <c r="O6">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="P6">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="Q6">
-        <v>12.32087350002167</v>
+        <v>12.55190958680622</v>
       </c>
       <c r="R6">
-        <v>12.32087350002167</v>
+        <v>112.967186281256</v>
       </c>
       <c r="S6">
-        <v>0.04567609879663204</v>
+        <v>0.01725842991606868</v>
       </c>
       <c r="T6">
-        <v>0.04567609879663204</v>
+        <v>0.01725842991606868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H7">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J7">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.24378139788671</v>
+        <v>3.287074</v>
       </c>
       <c r="N7">
-        <v>3.24378139788671</v>
+        <v>9.861222</v>
       </c>
       <c r="O7">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329392</v>
       </c>
       <c r="P7">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329391</v>
       </c>
       <c r="Q7">
-        <v>7.503536766734935</v>
+        <v>7.649332374338668</v>
       </c>
       <c r="R7">
-        <v>7.503536766734935</v>
+        <v>68.843991369048</v>
       </c>
       <c r="S7">
-        <v>0.0278172068466528</v>
+        <v>0.01051756035798772</v>
       </c>
       <c r="T7">
-        <v>0.0278172068466528</v>
+        <v>0.01051756035798772</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H8">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J8">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.48008305953644</v>
+        <v>17.00372766666667</v>
       </c>
       <c r="N8">
-        <v>5.48008305953644</v>
+        <v>51.011183</v>
       </c>
       <c r="O8">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567142</v>
       </c>
       <c r="P8">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567141</v>
       </c>
       <c r="Q8">
-        <v>27.3432045648317</v>
+        <v>85.780711399898</v>
       </c>
       <c r="R8">
-        <v>27.3432045648317</v>
+        <v>772.026402599082</v>
       </c>
       <c r="S8">
-        <v>0.1013670754039944</v>
+        <v>0.117945431777313</v>
       </c>
       <c r="T8">
-        <v>0.1013670754039944</v>
+        <v>0.117945431777313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H9">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J9">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.32631764293685</v>
+        <v>5.393811333333333</v>
       </c>
       <c r="N9">
-        <v>5.32631764293685</v>
+        <v>16.181434</v>
       </c>
       <c r="O9">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="P9">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="Q9">
-        <v>26.57598275534423</v>
+        <v>27.210796503004</v>
       </c>
       <c r="R9">
-        <v>26.57598275534423</v>
+        <v>244.897168527036</v>
       </c>
       <c r="S9">
-        <v>0.09852282096302327</v>
+        <v>0.03741387883331567</v>
       </c>
       <c r="T9">
-        <v>0.09852282096302327</v>
+        <v>0.03741387883331568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H10">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J10">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.24378139788671</v>
+        <v>3.287074</v>
       </c>
       <c r="N10">
-        <v>3.24378139788671</v>
+        <v>9.861222</v>
       </c>
       <c r="O10">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329392</v>
       </c>
       <c r="P10">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329391</v>
       </c>
       <c r="Q10">
-        <v>16.18504270143577</v>
+        <v>16.582690082532</v>
       </c>
       <c r="R10">
-        <v>16.18504270143577</v>
+        <v>149.244210742788</v>
       </c>
       <c r="S10">
-        <v>0.06000139596086174</v>
+        <v>0.02280060994942889</v>
       </c>
       <c r="T10">
-        <v>0.06000139596086174</v>
+        <v>0.02280060994942889</v>
       </c>
     </row>
   </sheetData>
